--- a/Project_C/Assets/ExcelTable/MonsterTable.xlsx
+++ b/Project_C/Assets/ExcelTable/MonsterTable.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\학교\졸작\팀 아이덴티티\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOL\Documents\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84921969-2856-4A94-BF8E-C3162A30170B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AA364DD9-FB5C-4093-9928-9DAF6B0A36B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,121 +138,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>E_CardBreak</t>
+  </si>
+  <si>
+    <t>E_GiveDraw</t>
+  </si>
+  <si>
+    <t>E_GiveInvincibility</t>
+  </si>
+  <si>
     <t>Slime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이 몬스터는 사망 시 작은 슬라임 _마리로 분열합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E_None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CSlime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작은 슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이 몬스터는 아무런 효과도 가지고 있지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WoodTotem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>덩굴정령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이 몬스터는 적을 _초간 속박하는 공격을 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E_GiveHold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GoblinStealer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고블린 약탈자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이 몬스터는 적의 패를 _장 파괴합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_CardBreak</t>
   </si>
   <si>
     <t>GoblinStore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고블린 보부상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이 몬스터는 적에게 공격 당하면 _장 만큼 드로우 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_GiveDraw</t>
   </si>
   <si>
     <t>GoblinHentai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>변태고블린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이 몬스터는 적에게 공격이 성공하면 _장 만큼 드로우 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GoblinDrunk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고블린 취객</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이 몬스터는 적에게 공격 당하면 고블린 취객을 _마리 소환합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GuardianStone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수호석상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이 몬스터는 자신을 제외한 맵에 있는 모든 몬스터에게 도발 상태를 부여합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E_Taunt</t>
+  </si>
+  <si>
+    <t>고블린 선봉대</t>
+  </si>
+  <si>
+    <t>이 몬스터는 맵에 있는 모든 몬스터에게 _초간 무적 상태를 부여합니다.</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>드루이드</t>
+  </si>
+  <si>
+    <t>더어어어미데타</t>
+  </si>
+  <si>
+    <t>E_GiveHeal</t>
+  </si>
+  <si>
+    <t>GoblinBuilder</t>
+  </si>
+  <si>
+    <t>고블린조각가</t>
+  </si>
+  <si>
+    <t>GoblinMagic</t>
+  </si>
+  <si>
+    <t>고블린주술사</t>
+  </si>
+  <si>
+    <t>GoblinPriest</t>
+  </si>
+  <si>
+    <t>고블린사제</t>
+  </si>
+  <si>
+    <t>Wisp</t>
+  </si>
+  <si>
+    <t>위습</t>
+  </si>
+  <si>
+    <t>Dementor</t>
+  </si>
+  <si>
+    <t>디멘터</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>끈끈이거미</t>
+  </si>
+  <si>
+    <t>E_GiveStun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,21 +293,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고블린 선봉대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 몬스터는 맵에 있는 모든 몬스터에게 _초간 무적 상태를 부여합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_GiveInvincibility</t>
+    <t>E_GiveHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_GiveSilence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_GiveStun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -367,24 +404,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,9 +418,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -795,10 +818,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05290284-F443-48A7-973E-72A59B81C980}">
-  <dimension ref="A1:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -832,18 +857,18 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="7"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -900,10 +925,10 @@
         <v>501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -918,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O3" s="1">
         <v>2</v>
@@ -950,10 +975,10 @@
         <v>502</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -968,25 +993,25 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -1000,10 +1025,10 @@
         <v>503</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1018,25 +1043,25 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O5" s="1">
         <v>1.5</v>
@@ -1050,10 +1075,10 @@
         <v>504</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1068,25 +1093,25 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -1100,10 +1125,10 @@
         <v>505</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1118,25 +1143,25 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -1150,10 +1175,10 @@
         <v>506</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -1168,25 +1193,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -1200,10 +1225,10 @@
         <v>507</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -1218,25 +1243,25 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -1250,10 +1275,10 @@
         <v>508</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1268,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -1296,52 +1321,402 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>509</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>20</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>200</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0.5</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>510</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="1">
         <v>30</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>511</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>512</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>513</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="1">
         <v>30</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>514</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>515</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="1">
+        <v>5</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>516</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1372,5 +1747,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_C/Assets/ExcelTable/MonsterTable.xlsx
+++ b/Project_C/Assets/ExcelTable/MonsterTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOL\Documents\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOW2_400_203\Desktop\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>f_Parameter[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,9 +185,6 @@
     <t>고블린 약탈자</t>
   </si>
   <si>
-    <t>이 몬스터는 적의 패를 _장 파괴합니다.</t>
-  </si>
-  <si>
     <t>GoblinStore</t>
   </si>
   <si>
@@ -204,108 +197,124 @@
     <t>GoblinHentai</t>
   </si>
   <si>
-    <t>변태고블린</t>
-  </si>
-  <si>
-    <t>이 몬스터는 적에게 공격이 성공하면 _장 만큼 드로우 합니다.</t>
+    <t>GuardianStone</t>
+  </si>
+  <si>
+    <t>수호석상</t>
+  </si>
+  <si>
+    <t>이 몬스터는 자신을 제외한 맵에 있는 모든 몬스터에게 도발 상태를 부여합니다.</t>
+  </si>
+  <si>
+    <t>E_Taunt</t>
+  </si>
+  <si>
+    <t>고블린 선봉대</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>드루이드</t>
+  </si>
+  <si>
+    <t>E_GiveHeal</t>
+  </si>
+  <si>
+    <t>GoblinBuilder</t>
+  </si>
+  <si>
+    <t>고블린조각가</t>
+  </si>
+  <si>
+    <t>f_Parameter[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 공격에 성공 할 시 적의 패를 _장 파괴한 뒤 _만큼 침묵을 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_GiveSilence</t>
+  </si>
+  <si>
+    <t>장난 꾸러기 고블린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 적에게 공격이 성공하면 _장 만큼 드로우 준 뒤 _만큼 공격력이 증가하고 _만큼 이동속도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_IncreaseDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_IncreaseSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinFirst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 맵에 있는 모든 몬스터에게 _초간 무적 상태를 부여합니다. 방어도가 전부 사라지면 적에게 _만큼 스턴을 준 뒤 공격을 받게 되면 _ 몬스터를 _마리 만큼 소환 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 공격에 성공할 시 적에게 _만큼 슬로우를 부여하고 체력이 _이하로 줄어들게 되면 자신을 기준으로 한 원형의 범위 힐을 초당 _만큼 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 죽게되면 _몬스터를 소환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinSling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 투석병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinShiled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 방패병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 자신을 제외한 맵에 있는 모든 몬스터에게 도발 무적 상태를 부여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GoblinDrunk</t>
-  </si>
-  <si>
-    <t>고블린 취객</t>
-  </si>
-  <si>
-    <t>이 몬스터는 적에게 공격 당하면 고블린 취객을 _마리 소환합니다.</t>
-  </si>
-  <si>
-    <t>GuardianStone</t>
-  </si>
-  <si>
-    <t>수호석상</t>
-  </si>
-  <si>
-    <t>이 몬스터는 자신을 제외한 맵에 있는 모든 몬스터에게 도발 상태를 부여합니다.</t>
-  </si>
-  <si>
-    <t>E_Taunt</t>
-  </si>
-  <si>
-    <t>고블린 선봉대</t>
-  </si>
-  <si>
-    <t>이 몬스터는 맵에 있는 모든 몬스터에게 _초간 무적 상태를 부여합니다.</t>
-  </si>
-  <si>
-    <t>Druid</t>
-  </si>
-  <si>
-    <t>드루이드</t>
-  </si>
-  <si>
-    <t>더어어어미데타</t>
-  </si>
-  <si>
-    <t>E_GiveHeal</t>
-  </si>
-  <si>
-    <t>GoblinBuilder</t>
-  </si>
-  <si>
-    <t>고블린조각가</t>
-  </si>
-  <si>
-    <t>GoblinMagic</t>
-  </si>
-  <si>
-    <t>고블린주술사</t>
-  </si>
-  <si>
-    <t>GoblinPriest</t>
-  </si>
-  <si>
-    <t>고블린사제</t>
-  </si>
-  <si>
-    <t>Wisp</t>
-  </si>
-  <si>
-    <t>위습</t>
-  </si>
-  <si>
-    <t>Dementor</t>
-  </si>
-  <si>
-    <t>디멘터</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>끈끈이거미</t>
-  </si>
-  <si>
-    <t>E_GiveStun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoblinFirst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_GiveHeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_GiveSilence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_GiveStun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린취객</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 공격을 받고 죽지 않으면 고블린 취객을 _마리 소환합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -404,13 +413,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,6 +436,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -429,14 +450,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -819,20 +969,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="164.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,78 +1007,86 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="6"/>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>501</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -943,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3" s="1">
         <v>2</v>
@@ -969,16 +1127,22 @@
       <c r="P3" s="1">
         <v>0</v>
       </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>502</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -993,25 +1157,25 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -1019,16 +1183,22 @@
       <c r="P4" s="1">
         <v>0</v>
       </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>503</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1043,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="1">
         <v>1.5</v>
@@ -1069,16 +1239,22 @@
       <c r="P5" s="1">
         <v>0</v>
       </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>504</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1093,42 +1269,48 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
       <c r="P6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>505</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1143,25 +1325,25 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -1169,16 +1351,22 @@
       <c r="P7" s="1">
         <v>0</v>
       </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>506</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -1193,148 +1381,166 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
       <c r="P8" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>507</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
       </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>508</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>512</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>509</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1">
         <v>0.5</v>
@@ -1343,42 +1549,48 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P11" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>15</v>
+      </c>
+      <c r="R11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>510</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -1393,42 +1605,48 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="1">
-        <v>30</v>
+        <v>507</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
       </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>511</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
@@ -1443,25 +1661,25 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
@@ -1469,284 +1687,247 @@
       <c r="P13" s="1">
         <v>0</v>
       </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>512</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
       </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>513</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F15" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
       </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>514</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>50</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>515</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="1">
-        <v>5</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>516</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>50</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:I1 A3:H4 A2:N2 A5:I8 A9:H9 A11:H11">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A1:I1 A2:N2">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:P1">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="O1">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:P2">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A3:H4 A5:I8 A9:H9 A11:H11">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$A3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A10:H10">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B10:H10">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$A10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:H9">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$A9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$A14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$A14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$A12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:R2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_C/Assets/ExcelTable/MonsterTable.xlsx
+++ b/Project_C/Assets/ExcelTable/MonsterTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOW2_400_203\Desktop\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park\Desktop\Park\Project_C\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0920E2-4AE3-4F89-B113-F5AE60A74374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="645" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E_Stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 몬스터는 공격에 성공할 시 적에게 _만큼 슬로우를 부여하고 체력이 _이하로 줄어들게 되면 자신을 기준으로 한 원형의 범위 힐을 초당 _만큼 준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,13 +304,33 @@
   </si>
   <si>
     <t>이 몬스터는 공격을 받고 죽지 않으면 고블린 취객을 _마리 소환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_EffectOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_HUDOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 y 오프셋(픽셀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hud y 오프셋(픽셀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_GiveStun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -968,21 +977,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="164.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="164.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,24 +1016,30 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1045,40 +1062,46 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>501</v>
       </c>
@@ -1100,18 +1123,18 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1121,20 +1144,26 @@
       <c r="N3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="1">
         <v>2</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
       <c r="R3" s="1">
         <v>0</v>
       </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>502</v>
       </c>
@@ -1156,15 +1185,15 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1177,11 +1206,11 @@
       <c r="N4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
+      <c r="O4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -1189,8 +1218,14 @@
       <c r="R4" s="1">
         <v>0</v>
       </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>503</v>
       </c>
@@ -1212,18 +1247,18 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1233,20 +1268,26 @@
       <c r="N5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="1">
         <v>1.5</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
       <c r="R5" s="1">
         <v>0</v>
       </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>504</v>
       </c>
@@ -1268,41 +1309,47 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>2</v>
       </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>505</v>
       </c>
@@ -1324,18 +1371,18 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="1">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1345,20 +1392,26 @@
       <c r="N7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="1">
         <v>1</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
       <c r="R7" s="1">
         <v>0</v>
       </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>506</v>
       </c>
@@ -1380,41 +1433,47 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="1">
         <v>1</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <v>5</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <v>0.2</v>
       </c>
-      <c r="R8" s="1">
+      <c r="T8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>507</v>
       </c>
@@ -1436,18 +1495,18 @@
       <c r="G9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="1">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1457,11 +1516,11 @@
       <c r="N9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
+      <c r="O9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -1469,8 +1528,14 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>508</v>
       </c>
@@ -1492,41 +1557,47 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="1">
         <v>2</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>2</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="S10" s="1">
         <v>512</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>509</v>
       </c>
@@ -1548,41 +1619,47 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="1">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="1">
         <v>0.25</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>100</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <v>15</v>
       </c>
-      <c r="R11" s="1">
+      <c r="T11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>510</v>
       </c>
@@ -1604,18 +1681,18 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="1">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1625,28 +1702,34 @@
       <c r="N12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="1">
         <v>507</v>
       </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>511</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
@@ -1660,14 +1743,14 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>32</v>
+      <c r="H13" s="1">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1">
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>32</v>
@@ -1681,11 +1764,11 @@
       <c r="N13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
+      <c r="O13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -1693,16 +1776,22 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>512</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1716,18 +1805,18 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="1">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1737,11 +1826,11 @@
       <c r="N14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
+      <c r="O14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -1749,16 +1838,22 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>513</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1772,18 +1867,18 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="1">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1793,136 +1888,82 @@
       <c r="N15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="1">
         <v>1</v>
       </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:I1 A2:N2">
+  <conditionalFormatting sqref="A1:K1 A2:P2">
     <cfRule type="expression" dxfId="10" priority="13">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
+  <conditionalFormatting sqref="Q1">
     <cfRule type="expression" dxfId="9" priority="12">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P2">
+  <conditionalFormatting sqref="Q2:R2">
     <cfRule type="expression" dxfId="8" priority="11">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:H4 A5:I8 A9:H9 A11:H11">
+  <conditionalFormatting sqref="A3:J3 A11:G11 J11 J9 J5:K8 A4:G9 J4 H4:I15">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>$A3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:H10">
+  <conditionalFormatting sqref="A10:G10 J10">
     <cfRule type="expression" dxfId="6" priority="8">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:H10">
+  <conditionalFormatting sqref="B10:G10 J10">
     <cfRule type="expression" dxfId="5" priority="7">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:H9">
+  <conditionalFormatting sqref="B9:G9 J9">
     <cfRule type="expression" dxfId="4" priority="6">
       <formula>$A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="J14">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="J14">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12">
+  <conditionalFormatting sqref="Q12">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:R2">
+  <conditionalFormatting sqref="S2:T2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>

--- a/Project_C/Assets/ExcelTable/MonsterTable.xlsx
+++ b/Project_C/Assets/ExcelTable/MonsterTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park\Desktop\Park\Project_C\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0920E2-4AE3-4F89-B113-F5AE60A74374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53850F0C-87AC-4C03-A82E-F735B3DC8805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
@@ -315,15 +315,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이펙트 y 오프셋(픽셀)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hud y 오프셋(픽셀)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E_GiveStun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 y 좌표(1=&gt;iso tile height)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,14 +981,14 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="164.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1062,10 +1062,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -1570,7 +1570,7 @@
         <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>31</v>

--- a/Project_C/Assets/ExcelTable/MonsterTable.xlsx
+++ b/Project_C/Assets/ExcelTable/MonsterTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교\졸작\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53850F0C-87AC-4C03-A82E-F735B3DC8805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22C7A92-AA8A-41E5-A5C2-62D88BD1907F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
@@ -981,10 +981,10 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
@@ -993,7 +993,7 @@
     <col min="10" max="10" width="164.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>501</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>502</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>503</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>504</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>505</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>506</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>507</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>508</v>
       </c>
@@ -1549,13 +1549,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1">
         <v>0.5</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1">
         <v>15</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>509</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>510</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>511</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>512</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <v>0.25</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>513</v>
       </c>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>

--- a/Project_C/Assets/ExcelTable/MonsterTable.xlsx
+++ b/Project_C/Assets/ExcelTable/MonsterTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교\졸작\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Identity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22C7A92-AA8A-41E5-A5C2-62D88BD1907F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB818343-B8A4-4E03-A44A-78158D2107C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="27990" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
@@ -980,11 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
@@ -993,7 +993,7 @@
     <col min="10" max="10" width="164.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>501</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>0.7</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>502</v>
       </c>
@@ -1174,10 +1174,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
         <v>0.7</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>503</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>504</v>
       </c>
@@ -1298,10 +1298,10 @@
         <v>41</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>505</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>506</v>
       </c>
@@ -1422,10 +1422,10 @@
         <v>59</v>
       </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>507</v>
       </c>
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>15</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>508</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>509</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>510</v>
       </c>
@@ -1670,10 +1670,10 @@
         <v>55</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>0.5</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>511</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1">
         <v>0.5</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>512</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>513</v>
       </c>
@@ -1856,10 +1856,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1">
         <v>0.5</v>

--- a/Project_C/Assets/ExcelTable/MonsterTable.xlsx
+++ b/Project_C/Assets/ExcelTable/MonsterTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Identity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOW2_400_204\Desktop\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB818343-B8A4-4E03-A44A-78158D2107C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="27990" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="27990" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
@@ -330,7 +329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -977,11 +976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1251,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>38</v>
@@ -1313,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>57</v>
@@ -1375,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>44</v>
@@ -1437,7 +1436,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>60</v>
@@ -1499,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>48</v>
@@ -1561,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>64</v>
@@ -1623,7 +1622,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>65</v>
@@ -1685,7 +1684,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>66</v>
@@ -1747,7 +1746,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>69</v>
@@ -1809,7 +1808,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>74</v>
@@ -1871,7 +1870,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>77</v>

--- a/Project_C/Assets/ExcelTable/MonsterTable.xlsx
+++ b/Project_C/Assets/ExcelTable/MonsterTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOW2_400_204\Desktop\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE0D35-2047-46B7-9C92-AD3C20625860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="27990" windowHeight="14760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
@@ -314,22 +315,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hud y 오프셋(픽셀)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E_GiveStun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이펙트 y 좌표(1=&gt;iso tile height)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hud y 좌표(1=&gt;iso tile height)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -976,11 +977,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -988,7 +989,7 @@
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="164.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1061,10 +1062,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -1123,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="I3" s="1">
-        <v>100</v>
+        <v>0.8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>30</v>
@@ -1185,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="I4" s="1">
-        <v>100</v>
+        <v>0.9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
@@ -1247,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>15</v>
+        <v>0.4</v>
       </c>
       <c r="I5" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>38</v>
@@ -1309,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>15</v>
+        <v>0.4</v>
       </c>
       <c r="I6" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>57</v>
@@ -1371,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>15</v>
+        <v>0.4</v>
       </c>
       <c r="I7" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>44</v>
@@ -1433,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="1">
-        <v>100</v>
+        <v>0.9</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>60</v>
@@ -1495,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="I9" s="1">
-        <v>100</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>48</v>
@@ -1557,10 +1558,10 @@
         <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="I10" s="1">
-        <v>100</v>
+        <v>0.9</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>64</v>
@@ -1569,7 +1570,7 @@
         <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>31</v>
@@ -1619,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="1">
-        <v>100</v>
+        <v>0.9</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>65</v>
@@ -1681,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="I12" s="1">
-        <v>100</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>66</v>
@@ -1743,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="I13" s="1">
-        <v>100</v>
+        <v>0.9</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>69</v>
@@ -1805,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="I14" s="1">
-        <v>100</v>
+        <v>0.9</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>74</v>
@@ -1867,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="I15" s="1">
-        <v>100</v>
+        <v>0.9</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>77</v>
@@ -1928,42 +1929,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:J3 A11:G11 J11 J9 J5:K8 A4:G9 J4 H4:I15">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:G10 J10">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:G10 J10">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:G9 J9">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:T2">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Project_C/Assets/ExcelTable/MonsterTable.xlsx
+++ b/Project_C/Assets/ExcelTable/MonsterTable.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Now2_400_197\Desktop\Park\Project_C\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE0D35-2047-46B7-9C92-AD3C20625860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
+    <sheet name="NPCTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,13 +324,57 @@
   </si>
   <si>
     <t>hud y 좌표(1=&gt;iso tile height)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreasureBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardCharger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱보충 마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_PersistenceAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 효과 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardPresent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타로카드 마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealTotem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 석상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +492,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -469,7 +516,169 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="20">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -977,11 +1186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1024,20 +1233,20 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="7" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1914,61 +2123,281 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:K1 A2:P2">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:R2">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:J3 A11:G11 J11 J9 J5:K8 A4:G9 J4 H4:I15">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>$A3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:G10 J10">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:G10 J10">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:G9 J9">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>$A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$A12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:T2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1203</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1204</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:D3">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F2">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H2">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:D4">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$A4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$A5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$A5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>